--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_kanjiexamples.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_kanjiexamples.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="380">
   <si>
     <t>KanjiCode</t>
   </si>
@@ -820,6 +820,342 @@
   </si>
   <si>
     <t>じゅっさい</t>
+  </si>
+  <si>
+    <t>V000010011</t>
+  </si>
+  <si>
+    <t>Từ điển bách khoa</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>二百</t>
+  </si>
+  <si>
+    <t>三百</t>
+  </si>
+  <si>
+    <t>百科事典</t>
+  </si>
+  <si>
+    <t>ひゃっかじてん</t>
+  </si>
+  <si>
+    <t>さんびゃく</t>
+  </si>
+  <si>
+    <t>にひゃく</t>
+  </si>
+  <si>
+    <t>ひゃく</t>
+  </si>
+  <si>
+    <t>V000010012</t>
+  </si>
+  <si>
+    <t>1000 yên</t>
+  </si>
+  <si>
+    <t>1000 năm</t>
+  </si>
+  <si>
+    <t>V000010013</t>
+  </si>
+  <si>
+    <t>Một trăm ngàn</t>
+  </si>
+  <si>
+    <t>Một triệu</t>
+  </si>
+  <si>
+    <t>Vạn tuế</t>
+  </si>
+  <si>
+    <t>V000010014</t>
+  </si>
+  <si>
+    <t>100 yên</t>
+  </si>
+  <si>
+    <t>Tròn</t>
+  </si>
+  <si>
+    <t>Đồng yên</t>
+  </si>
+  <si>
+    <t>Yên cao</t>
+  </si>
+  <si>
+    <t>Yên yếu</t>
+  </si>
+  <si>
+    <t>V000010015</t>
+  </si>
+  <si>
+    <t>Cái miệng</t>
+  </si>
+  <si>
+    <t>Nhân khẩu</t>
+  </si>
+  <si>
+    <t>Cổng bắc</t>
+  </si>
+  <si>
+    <t>Cổng vào</t>
+  </si>
+  <si>
+    <t>Cổng ra</t>
+  </si>
+  <si>
+    <t>V000010016</t>
+  </si>
+  <si>
+    <t>Con mắt</t>
+  </si>
+  <si>
+    <t>Ngày đầu tiên</t>
+  </si>
+  <si>
+    <t>Mục đích</t>
+  </si>
+  <si>
+    <t>Ngàn, nghìn</t>
+  </si>
+  <si>
+    <t>Dân số</t>
+  </si>
+  <si>
+    <t>Môn học</t>
+  </si>
+  <si>
+    <t>Mục lục</t>
+  </si>
+  <si>
+    <t>Bách</t>
+  </si>
+  <si>
+    <t>Nhị bách</t>
+  </si>
+  <si>
+    <t>Tam bách</t>
+  </si>
+  <si>
+    <t>Bách khoa sự điển</t>
+  </si>
+  <si>
+    <t>Thiên</t>
+  </si>
+  <si>
+    <t>Nhị thiên</t>
+  </si>
+  <si>
+    <t>Tam thiên</t>
+  </si>
+  <si>
+    <t>Bát thiên</t>
+  </si>
+  <si>
+    <t>Thiên viên</t>
+  </si>
+  <si>
+    <t>Thiên niên</t>
+  </si>
+  <si>
+    <t>Vạn</t>
+  </si>
+  <si>
+    <t>Mười vạn</t>
+  </si>
+  <si>
+    <t>Trăm vạn</t>
+  </si>
+  <si>
+    <t>Trăm viên</t>
+  </si>
+  <si>
+    <t>Viên</t>
+  </si>
+  <si>
+    <t>Viên cao</t>
+  </si>
+  <si>
+    <t>Viên an</t>
+  </si>
+  <si>
+    <t>Khẩu</t>
+  </si>
+  <si>
+    <t>Khẩu nhập</t>
+  </si>
+  <si>
+    <t>Khẩu xuất</t>
+  </si>
+  <si>
+    <t>Bắc khẩu</t>
+  </si>
+  <si>
+    <t>Mục</t>
+  </si>
+  <si>
+    <t>Nhất nhật mục</t>
+  </si>
+  <si>
+    <t>Khoa mục</t>
+  </si>
+  <si>
+    <t>Mục thứ</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>二千</t>
+  </si>
+  <si>
+    <t>三千</t>
+  </si>
+  <si>
+    <t>八千</t>
+  </si>
+  <si>
+    <t>千円</t>
+  </si>
+  <si>
+    <t>千年</t>
+  </si>
+  <si>
+    <t>一万</t>
+  </si>
+  <si>
+    <t>十万</t>
+  </si>
+  <si>
+    <t>百万</t>
+  </si>
+  <si>
+    <t>万歳</t>
+  </si>
+  <si>
+    <t>百円</t>
+  </si>
+  <si>
+    <t>円</t>
+  </si>
+  <si>
+    <t>円い</t>
+  </si>
+  <si>
+    <t>まるい</t>
+  </si>
+  <si>
+    <t>円高</t>
+  </si>
+  <si>
+    <t>円安</t>
+  </si>
+  <si>
+    <t>口</t>
+  </si>
+  <si>
+    <t>入り口</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>北口</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>一日目</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>目次</t>
+  </si>
+  <si>
+    <t>せん</t>
+  </si>
+  <si>
+    <t>にせん</t>
+  </si>
+  <si>
+    <t>さんぜん</t>
+  </si>
+  <si>
+    <t>はっせん</t>
+  </si>
+  <si>
+    <t>せんえん</t>
+  </si>
+  <si>
+    <t>せんねん</t>
+  </si>
+  <si>
+    <t>いちまん</t>
+  </si>
+  <si>
+    <t>じゅうまん</t>
+  </si>
+  <si>
+    <t>ひゃくまん</t>
+  </si>
+  <si>
+    <t>ばんざい</t>
+  </si>
+  <si>
+    <t>ひゃくえん</t>
+  </si>
+  <si>
+    <t>えん</t>
+  </si>
+  <si>
+    <t>えんだか</t>
+  </si>
+  <si>
+    <t>えんやす</t>
+  </si>
+  <si>
+    <t>くち</t>
+  </si>
+  <si>
+    <t>いりぐち</t>
+  </si>
+  <si>
+    <t>でぐち</t>
+  </si>
+  <si>
+    <t>じんこう</t>
+  </si>
+  <si>
+    <t>きたぐち</t>
+  </si>
+  <si>
+    <t>め</t>
+  </si>
+  <si>
+    <t>いちにちめ</t>
+  </si>
+  <si>
+    <t>もくてき</t>
+  </si>
+  <si>
+    <t>かもく</t>
+  </si>
+  <si>
+    <t>もくじ</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2280,6 +2616,530 @@
       </c>
       <c r="F65" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" t="s">
+        <v>305</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" t="s">
+        <v>306</v>
+      </c>
+      <c r="F67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" t="s">
+        <v>307</v>
+      </c>
+      <c r="F68">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" t="s">
+        <v>308</v>
+      </c>
+      <c r="F71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" t="s">
+        <v>330</v>
+      </c>
+      <c r="D72" t="s">
+        <v>356</v>
+      </c>
+      <c r="E72" t="s">
+        <v>309</v>
+      </c>
+      <c r="F72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" t="s">
+        <v>331</v>
+      </c>
+      <c r="D73" t="s">
+        <v>357</v>
+      </c>
+      <c r="E73" t="s">
+        <v>310</v>
+      </c>
+      <c r="F73">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" t="s">
+        <v>358</v>
+      </c>
+      <c r="E74" t="s">
+        <v>311</v>
+      </c>
+      <c r="F74">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" t="s">
+        <v>333</v>
+      </c>
+      <c r="D75" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75" t="s">
+        <v>312</v>
+      </c>
+      <c r="F75">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" t="s">
+        <v>334</v>
+      </c>
+      <c r="D76" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" t="s">
+        <v>313</v>
+      </c>
+      <c r="F76" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" t="s">
+        <v>335</v>
+      </c>
+      <c r="D77" t="s">
+        <v>361</v>
+      </c>
+      <c r="E77" t="s">
+        <v>314</v>
+      </c>
+      <c r="F77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>281</v>
+      </c>
+      <c r="C78" t="s">
+        <v>336</v>
+      </c>
+      <c r="D78" t="s">
+        <v>362</v>
+      </c>
+      <c r="E78" t="s">
+        <v>315</v>
+      </c>
+      <c r="F78" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" t="s">
+        <v>337</v>
+      </c>
+      <c r="D79" t="s">
+        <v>363</v>
+      </c>
+      <c r="E79" t="s">
+        <v>316</v>
+      </c>
+      <c r="F79" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" t="s">
+        <v>338</v>
+      </c>
+      <c r="D80" t="s">
+        <v>364</v>
+      </c>
+      <c r="E80" t="s">
+        <v>317</v>
+      </c>
+      <c r="F80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" t="s">
+        <v>339</v>
+      </c>
+      <c r="D81" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" t="s">
+        <v>284</v>
+      </c>
+      <c r="F81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" t="s">
+        <v>340</v>
+      </c>
+      <c r="D82" t="s">
+        <v>366</v>
+      </c>
+      <c r="E82" t="s">
+        <v>318</v>
+      </c>
+      <c r="F82" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" t="s">
+        <v>341</v>
+      </c>
+      <c r="D83" t="s">
+        <v>367</v>
+      </c>
+      <c r="E83" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" t="s">
+        <v>342</v>
+      </c>
+      <c r="D84" t="s">
+        <v>343</v>
+      </c>
+      <c r="F84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>285</v>
+      </c>
+      <c r="C85" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" t="s">
+        <v>368</v>
+      </c>
+      <c r="E85" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" t="s">
+        <v>345</v>
+      </c>
+      <c r="D86" t="s">
+        <v>369</v>
+      </c>
+      <c r="E86" t="s">
+        <v>321</v>
+      </c>
+      <c r="F86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" t="s">
+        <v>346</v>
+      </c>
+      <c r="D87" t="s">
+        <v>370</v>
+      </c>
+      <c r="E87" t="s">
+        <v>322</v>
+      </c>
+      <c r="F87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" t="s">
+        <v>347</v>
+      </c>
+      <c r="D88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E88" t="s">
+        <v>323</v>
+      </c>
+      <c r="F88" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" t="s">
+        <v>348</v>
+      </c>
+      <c r="D89" t="s">
+        <v>372</v>
+      </c>
+      <c r="E89" t="s">
+        <v>324</v>
+      </c>
+      <c r="F89" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" t="s">
+        <v>349</v>
+      </c>
+      <c r="D90" t="s">
+        <v>373</v>
+      </c>
+      <c r="E90" t="s">
+        <v>293</v>
+      </c>
+      <c r="F90" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" t="s">
+        <v>374</v>
+      </c>
+      <c r="E91" t="s">
+        <v>325</v>
+      </c>
+      <c r="F91" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" t="s">
+        <v>351</v>
+      </c>
+      <c r="D92" t="s">
+        <v>375</v>
+      </c>
+      <c r="E92" t="s">
+        <v>326</v>
+      </c>
+      <c r="F92" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>297</v>
+      </c>
+      <c r="C93" t="s">
+        <v>352</v>
+      </c>
+      <c r="D93" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" t="s">
+        <v>327</v>
+      </c>
+      <c r="F93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" t="s">
+        <v>353</v>
+      </c>
+      <c r="D94" t="s">
+        <v>377</v>
+      </c>
+      <c r="E94" t="s">
+        <v>300</v>
+      </c>
+      <c r="F94" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" t="s">
+        <v>354</v>
+      </c>
+      <c r="D95" t="s">
+        <v>378</v>
+      </c>
+      <c r="E95" t="s">
+        <v>328</v>
+      </c>
+      <c r="F95" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" t="s">
+        <v>355</v>
+      </c>
+      <c r="D96" t="s">
+        <v>379</v>
+      </c>
+      <c r="E96" t="s">
+        <v>329</v>
+      </c>
+      <c r="F96" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_kanjiexamples.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_kanjiexamples.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="681">
   <si>
     <t>KanjiCode</t>
   </si>
@@ -42,21 +42,6 @@
     <t>Nhất</t>
   </si>
   <si>
-    <t>Nhất thời</t>
-  </si>
-  <si>
-    <t>Nhất phân</t>
-  </si>
-  <si>
-    <t>Nhất nguyệt</t>
-  </si>
-  <si>
-    <t>Nhất nhật</t>
-  </si>
-  <si>
-    <t>Nhất nhân</t>
-  </si>
-  <si>
     <t>V000010002</t>
   </si>
   <si>
@@ -114,24 +99,6 @@
     <t>Nhị</t>
   </si>
   <si>
-    <t>Nhị thời</t>
-  </si>
-  <si>
-    <t>Nhị nguyệt</t>
-  </si>
-  <si>
-    <t>Nhị nhân</t>
-  </si>
-  <si>
-    <t>Nhị nhật</t>
-  </si>
-  <si>
-    <t>Nhị thập nhật</t>
-  </si>
-  <si>
-    <t>Nhị thập tuế</t>
-  </si>
-  <si>
     <t>Hai</t>
   </si>
   <si>
@@ -180,21 +147,6 @@
     <t>Tam</t>
   </si>
   <si>
-    <t>Tam thời</t>
-  </si>
-  <si>
-    <t>Tam nguyệt</t>
-  </si>
-  <si>
-    <t>Tam nhật</t>
-  </si>
-  <si>
-    <t>Tam nhân</t>
-  </si>
-  <si>
-    <t>Tam tuế</t>
-  </si>
-  <si>
     <t>Ba</t>
   </si>
   <si>
@@ -204,12 +156,6 @@
     <t>Bốn</t>
   </si>
   <si>
-    <t>Tứ thời</t>
-  </si>
-  <si>
-    <t>Tứ nguyệt</t>
-  </si>
-  <si>
     <t>Tháng 3</t>
   </si>
   <si>
@@ -234,18 +180,6 @@
     <t>Tháng 2</t>
   </si>
   <si>
-    <t>Tứ nhật</t>
-  </si>
-  <si>
-    <t>Tứ nhân</t>
-  </si>
-  <si>
-    <t>Tứ tuế</t>
-  </si>
-  <si>
-    <t>Tứ niên sinh</t>
-  </si>
-  <si>
     <t>Tháng 4</t>
   </si>
   <si>
@@ -258,24 +192,6 @@
     <t>Ngũ</t>
   </si>
   <si>
-    <t>Ngũ thời</t>
-  </si>
-  <si>
-    <t>Ngũ nguyệt</t>
-  </si>
-  <si>
-    <t>Ngũ nhật</t>
-  </si>
-  <si>
-    <t>Ngũ niên</t>
-  </si>
-  <si>
-    <t>Ngũ nhân</t>
-  </si>
-  <si>
-    <t>Ngũ tuế</t>
-  </si>
-  <si>
     <t>Năm</t>
   </si>
   <si>
@@ -333,24 +249,6 @@
     <t>Lục</t>
   </si>
   <si>
-    <t>Lục thời</t>
-  </si>
-  <si>
-    <t>Lục nguyệt</t>
-  </si>
-  <si>
-    <t>Lục nhật</t>
-  </si>
-  <si>
-    <t>Lục nhân</t>
-  </si>
-  <si>
-    <t>Lục bách</t>
-  </si>
-  <si>
-    <t>Lục phân</t>
-  </si>
-  <si>
     <t>Sáu</t>
   </si>
   <si>
@@ -375,18 +273,6 @@
     <t>Thất</t>
   </si>
   <si>
-    <t>Thất thời</t>
-  </si>
-  <si>
-    <t>Thất nguyệt</t>
-  </si>
-  <si>
-    <t>Thất nhật</t>
-  </si>
-  <si>
-    <t>Thất phân</t>
-  </si>
-  <si>
     <t>Bảy</t>
   </si>
   <si>
@@ -408,21 +294,6 @@
     <t>Bát</t>
   </si>
   <si>
-    <t>Bát bách</t>
-  </si>
-  <si>
-    <t>Bát thời</t>
-  </si>
-  <si>
-    <t>Bát nguyệt</t>
-  </si>
-  <si>
-    <t>Bát nhật</t>
-  </si>
-  <si>
-    <t>Bát tuế</t>
-  </si>
-  <si>
     <t>Tám</t>
   </si>
   <si>
@@ -444,18 +315,6 @@
     <t>Cửu</t>
   </si>
   <si>
-    <t>Cửu thời</t>
-  </si>
-  <si>
-    <t>Cửu nguyệt</t>
-  </si>
-  <si>
-    <t>Cửu nhật</t>
-  </si>
-  <si>
-    <t>Cửu niên</t>
-  </si>
-  <si>
     <t>Chín</t>
   </si>
   <si>
@@ -735,24 +594,6 @@
     <t>Thập</t>
   </si>
   <si>
-    <t>Thập thời</t>
-  </si>
-  <si>
-    <t>Thập phân</t>
-  </si>
-  <si>
-    <t>Thập nguyệt</t>
-  </si>
-  <si>
-    <t>Thập nhật</t>
-  </si>
-  <si>
-    <t>Thập nhân</t>
-  </si>
-  <si>
-    <t>Thập tuế</t>
-  </si>
-  <si>
     <t>Mười</t>
   </si>
   <si>
@@ -897,9 +738,6 @@
     <t>Cái miệng</t>
   </si>
   <si>
-    <t>Nhân khẩu</t>
-  </si>
-  <si>
     <t>Cổng bắc</t>
   </si>
   <si>
@@ -936,78 +774,21 @@
     <t>Bách</t>
   </si>
   <si>
-    <t>Nhị bách</t>
-  </si>
-  <si>
-    <t>Tam bách</t>
-  </si>
-  <si>
-    <t>Bách khoa sự điển</t>
-  </si>
-  <si>
     <t>Thiên</t>
   </si>
   <si>
-    <t>Nhị thiên</t>
-  </si>
-  <si>
-    <t>Tam thiên</t>
-  </si>
-  <si>
-    <t>Bát thiên</t>
-  </si>
-  <si>
-    <t>Thiên viên</t>
-  </si>
-  <si>
-    <t>Thiên niên</t>
-  </si>
-  <si>
     <t>Vạn</t>
   </si>
   <si>
-    <t>Mười vạn</t>
-  </si>
-  <si>
-    <t>Trăm vạn</t>
-  </si>
-  <si>
-    <t>Trăm viên</t>
-  </si>
-  <si>
     <t>Viên</t>
   </si>
   <si>
-    <t>Viên cao</t>
-  </si>
-  <si>
-    <t>Viên an</t>
-  </si>
-  <si>
     <t>Khẩu</t>
   </si>
   <si>
-    <t>Khẩu nhập</t>
-  </si>
-  <si>
-    <t>Khẩu xuất</t>
-  </si>
-  <si>
-    <t>Bắc khẩu</t>
-  </si>
-  <si>
     <t>Mục</t>
   </si>
   <si>
-    <t>Nhất nhật mục</t>
-  </si>
-  <si>
-    <t>Khoa mục</t>
-  </si>
-  <si>
-    <t>Mục thứ</t>
-  </si>
-  <si>
     <t>千</t>
   </si>
   <si>
@@ -1156,6 +937,1128 @@
   </si>
   <si>
     <t>もくじ</t>
+  </si>
+  <si>
+    <t>V000010017</t>
+  </si>
+  <si>
+    <t>日曜日</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>今日</t>
+  </si>
+  <si>
+    <t>毎日</t>
+  </si>
+  <si>
+    <t>日記</t>
+  </si>
+  <si>
+    <t>母の日</t>
+  </si>
+  <si>
+    <t>休日</t>
+  </si>
+  <si>
+    <t>にちようび</t>
+  </si>
+  <si>
+    <t>にほん</t>
+  </si>
+  <si>
+    <t>きょう</t>
+  </si>
+  <si>
+    <t>まいにち</t>
+  </si>
+  <si>
+    <t>にっき</t>
+  </si>
+  <si>
+    <t>ははのひ</t>
+  </si>
+  <si>
+    <t>きゅうじつ</t>
+  </si>
+  <si>
+    <t>月曜日</t>
+  </si>
+  <si>
+    <t>がつようび</t>
+  </si>
+  <si>
+    <t>今月</t>
+  </si>
+  <si>
+    <t>こんげつ</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>つき</t>
+  </si>
+  <si>
+    <t>一ヶ月</t>
+  </si>
+  <si>
+    <t>いっかげつ</t>
+  </si>
+  <si>
+    <t>まいつき</t>
+  </si>
+  <si>
+    <t>毎月</t>
+  </si>
+  <si>
+    <t>来月</t>
+  </si>
+  <si>
+    <t>らいげつ</t>
+  </si>
+  <si>
+    <t>お正月</t>
+  </si>
+  <si>
+    <t>おしょうがつ</t>
+  </si>
+  <si>
+    <t>火曜日</t>
+  </si>
+  <si>
+    <t>かようび</t>
+  </si>
+  <si>
+    <t>ひ</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>火事</t>
+  </si>
+  <si>
+    <t>かじ</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>かざん</t>
+  </si>
+  <si>
+    <t>花火</t>
+  </si>
+  <si>
+    <t>はなび</t>
+  </si>
+  <si>
+    <t>火星</t>
+  </si>
+  <si>
+    <t>かせい</t>
+  </si>
+  <si>
+    <t>水曜日</t>
+  </si>
+  <si>
+    <t>すいようび</t>
+  </si>
+  <si>
+    <t>みず</t>
+  </si>
+  <si>
+    <t>水泳</t>
+  </si>
+  <si>
+    <t>すいえい</t>
+  </si>
+  <si>
+    <t>水着</t>
+  </si>
+  <si>
+    <t>みずぎ</t>
+  </si>
+  <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>こうすい</t>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>もくようび</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>き</t>
+  </si>
+  <si>
+    <t>木村さん</t>
+  </si>
+  <si>
+    <t>きむらさん</t>
+  </si>
+  <si>
+    <t>大木</t>
+  </si>
+  <si>
+    <t>たいぼく</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>きんようび</t>
+  </si>
+  <si>
+    <t>お金</t>
+  </si>
+  <si>
+    <t>おかね</t>
+  </si>
+  <si>
+    <t>お金持ち</t>
+  </si>
+  <si>
+    <t>おかねもち</t>
+  </si>
+  <si>
+    <t>料金</t>
+  </si>
+  <si>
+    <t>りょうきん</t>
+  </si>
+  <si>
+    <t>現金</t>
+  </si>
+  <si>
+    <t>げんきん</t>
+  </si>
+  <si>
+    <t>税金</t>
+  </si>
+  <si>
+    <t>ぜいきん</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>どようび</t>
+  </si>
+  <si>
+    <t>つち</t>
+  </si>
+  <si>
+    <t>お土産</t>
+  </si>
+  <si>
+    <t>おみやげ</t>
+  </si>
+  <si>
+    <t>土地</t>
+  </si>
+  <si>
+    <t>とち</t>
+  </si>
+  <si>
+    <t>土星</t>
+  </si>
+  <si>
+    <t>どせい</t>
+  </si>
+  <si>
+    <t>げつようび</t>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>ほん</t>
+  </si>
+  <si>
+    <t>一本</t>
+  </si>
+  <si>
+    <t>いっぽん</t>
+  </si>
+  <si>
+    <t>二本</t>
+  </si>
+  <si>
+    <t>三本</t>
+  </si>
+  <si>
+    <t>さんぼん</t>
+  </si>
+  <si>
+    <t>日本語</t>
+  </si>
+  <si>
+    <t>にほんご</t>
+  </si>
+  <si>
+    <t>山本さん</t>
+  </si>
+  <si>
+    <t>やまもとさん</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>ひと</t>
+  </si>
+  <si>
+    <t>日本人</t>
+  </si>
+  <si>
+    <t>にほんじん</t>
+  </si>
+  <si>
+    <t>一人で</t>
+  </si>
+  <si>
+    <t>ひとりで</t>
+  </si>
+  <si>
+    <t>女の人</t>
+  </si>
+  <si>
+    <t>おんなのひと</t>
+  </si>
+  <si>
+    <t>男の人</t>
+  </si>
+  <si>
+    <t>おとこのひと</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>いま</t>
+  </si>
+  <si>
+    <t>今晩</t>
+  </si>
+  <si>
+    <t>こんばん</t>
+  </si>
+  <si>
+    <t>今週</t>
+  </si>
+  <si>
+    <t>こんしゅう</t>
+  </si>
+  <si>
+    <t>今年</t>
+  </si>
+  <si>
+    <t>ことし</t>
+  </si>
+  <si>
+    <t>今朝</t>
+  </si>
+  <si>
+    <t>けさ</t>
+  </si>
+  <si>
+    <t>今度</t>
+  </si>
+  <si>
+    <t>こんど</t>
+  </si>
+  <si>
+    <t>お寺</t>
+  </si>
+  <si>
+    <t>おてら</t>
+  </si>
+  <si>
+    <t>寺院</t>
+  </si>
+  <si>
+    <t>じいん</t>
+  </si>
+  <si>
+    <t>山寺</t>
+  </si>
+  <si>
+    <t>やまでら</t>
+  </si>
+  <si>
+    <t>金閣寺</t>
+  </si>
+  <si>
+    <t>きんかくじ</t>
+  </si>
+  <si>
+    <t>時々</t>
+  </si>
+  <si>
+    <t>ときどき</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>じかん</t>
+  </si>
+  <si>
+    <t>一時間</t>
+  </si>
+  <si>
+    <t>いちじかん</t>
+  </si>
+  <si>
+    <t>時計</t>
+  </si>
+  <si>
+    <t>とけい</t>
+  </si>
+  <si>
+    <t>三時半</t>
+  </si>
+  <si>
+    <t>さんじはん</t>
+  </si>
+  <si>
+    <t>半分</t>
+  </si>
+  <si>
+    <t>はんぶん</t>
+  </si>
+  <si>
+    <t>半島</t>
+  </si>
+  <si>
+    <t>はんとう</t>
+  </si>
+  <si>
+    <t>半年</t>
+  </si>
+  <si>
+    <t>はんとし</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>かたな</t>
+  </si>
+  <si>
+    <t>日本刀</t>
+  </si>
+  <si>
+    <t>にほんとう</t>
+  </si>
+  <si>
+    <t>たんとう</t>
+  </si>
+  <si>
+    <t>短刀</t>
+  </si>
+  <si>
+    <t>五分</t>
+  </si>
+  <si>
+    <t>ごふん</t>
+  </si>
+  <si>
+    <t>分かる</t>
+  </si>
+  <si>
+    <t>わかる</t>
+  </si>
+  <si>
+    <t>V000010018</t>
+  </si>
+  <si>
+    <t>V000010019</t>
+  </si>
+  <si>
+    <t>V000010020</t>
+  </si>
+  <si>
+    <t>V000010021</t>
+  </si>
+  <si>
+    <t>V000010022</t>
+  </si>
+  <si>
+    <t>V000010023</t>
+  </si>
+  <si>
+    <t>V000010024</t>
+  </si>
+  <si>
+    <t>V000010025</t>
+  </si>
+  <si>
+    <t>V000010026</t>
+  </si>
+  <si>
+    <t>V000010027</t>
+  </si>
+  <si>
+    <t>V000010028</t>
+  </si>
+  <si>
+    <t>V000010029</t>
+  </si>
+  <si>
+    <t>V000010030</t>
+  </si>
+  <si>
+    <t>V000010031</t>
+  </si>
+  <si>
+    <t>V000010032</t>
+  </si>
+  <si>
+    <t>Nhật kí</t>
+  </si>
+  <si>
+    <t>Thứ 2</t>
+  </si>
+  <si>
+    <t>Nước Nhật</t>
+  </si>
+  <si>
+    <t>Hôm nay</t>
+  </si>
+  <si>
+    <t>Mỗi ngày</t>
+  </si>
+  <si>
+    <t>Ngày của mẹ</t>
+  </si>
+  <si>
+    <t>Ngày nghỉ</t>
+  </si>
+  <si>
+    <t>Nguyệt</t>
+  </si>
+  <si>
+    <t>Nhất Nguyệt</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Chủ nhật</t>
+  </si>
+  <si>
+    <t>Tháng này</t>
+  </si>
+  <si>
+    <t>1 tháng</t>
+  </si>
+  <si>
+    <t>Mỗi tháng</t>
+  </si>
+  <si>
+    <t>Tháng sau</t>
+  </si>
+  <si>
+    <t>Tết</t>
+  </si>
+  <si>
+    <t>Nhất Thời</t>
+  </si>
+  <si>
+    <t>Nhất Phân</t>
+  </si>
+  <si>
+    <t>Nhất Nhật</t>
+  </si>
+  <si>
+    <t>Nhất Nhân</t>
+  </si>
+  <si>
+    <t>Nhị Thời</t>
+  </si>
+  <si>
+    <t>Nhị Nguyệt</t>
+  </si>
+  <si>
+    <t>Nhị Nhân</t>
+  </si>
+  <si>
+    <t>Nhị Nhật</t>
+  </si>
+  <si>
+    <t>Nhị Thập Nhật</t>
+  </si>
+  <si>
+    <t>Nhị Thập Tuế</t>
+  </si>
+  <si>
+    <t>Tam Thời</t>
+  </si>
+  <si>
+    <t>Tam Nguyệt</t>
+  </si>
+  <si>
+    <t>Tam Nhật</t>
+  </si>
+  <si>
+    <t>Tam Nhân</t>
+  </si>
+  <si>
+    <t>Tam Tuế</t>
+  </si>
+  <si>
+    <t>Tứ Thời</t>
+  </si>
+  <si>
+    <t>Tứ Nguyệt</t>
+  </si>
+  <si>
+    <t>Tứ Nhật</t>
+  </si>
+  <si>
+    <t>Tứ Nhân</t>
+  </si>
+  <si>
+    <t>Tứ Tuế</t>
+  </si>
+  <si>
+    <t>Tứ Niên Sinh</t>
+  </si>
+  <si>
+    <t>Ngũ Thời</t>
+  </si>
+  <si>
+    <t>Ngũ Nguyệt</t>
+  </si>
+  <si>
+    <t>Ngũ Nhật</t>
+  </si>
+  <si>
+    <t>Ngũ Niên</t>
+  </si>
+  <si>
+    <t>Ngũ Nhân</t>
+  </si>
+  <si>
+    <t>Ngũ Tuế</t>
+  </si>
+  <si>
+    <t>Lục Thời</t>
+  </si>
+  <si>
+    <t>Lục Nguyệt</t>
+  </si>
+  <si>
+    <t>Lục Nhật</t>
+  </si>
+  <si>
+    <t>Lục Nhân</t>
+  </si>
+  <si>
+    <t>Lục Bách</t>
+  </si>
+  <si>
+    <t>Lục Phân</t>
+  </si>
+  <si>
+    <t>Thất Thời</t>
+  </si>
+  <si>
+    <t>Thất Nguyệt</t>
+  </si>
+  <si>
+    <t>Thất Nhật</t>
+  </si>
+  <si>
+    <t>Thất Phân</t>
+  </si>
+  <si>
+    <t>Bát Bách</t>
+  </si>
+  <si>
+    <t>Bát Thời</t>
+  </si>
+  <si>
+    <t>Bát Nguyệt</t>
+  </si>
+  <si>
+    <t>Bát Nhật</t>
+  </si>
+  <si>
+    <t>Bát Tuế</t>
+  </si>
+  <si>
+    <t>Cửu Thời</t>
+  </si>
+  <si>
+    <t>Cửu Nguyệt</t>
+  </si>
+  <si>
+    <t>Cửu Nhật</t>
+  </si>
+  <si>
+    <t>Cửu Niên</t>
+  </si>
+  <si>
+    <t>Thập Thời</t>
+  </si>
+  <si>
+    <t>Thập Phân</t>
+  </si>
+  <si>
+    <t>Thập Nguyệt</t>
+  </si>
+  <si>
+    <t>Thập Nhật</t>
+  </si>
+  <si>
+    <t>Thập Nhân</t>
+  </si>
+  <si>
+    <t>Thập Tuế</t>
+  </si>
+  <si>
+    <t>Nhị Bách</t>
+  </si>
+  <si>
+    <t>Tam Bách</t>
+  </si>
+  <si>
+    <t>Bách Khoa Sự Điển</t>
+  </si>
+  <si>
+    <t>Nhị Thiên</t>
+  </si>
+  <si>
+    <t>Tam Thiên</t>
+  </si>
+  <si>
+    <t>Bát Thiên</t>
+  </si>
+  <si>
+    <t>Thiên Viên</t>
+  </si>
+  <si>
+    <t>Thiên Niên</t>
+  </si>
+  <si>
+    <t>Mười Vạn</t>
+  </si>
+  <si>
+    <t>Trăm Vạn</t>
+  </si>
+  <si>
+    <t>Vạn Tuế</t>
+  </si>
+  <si>
+    <t>Trăm Viên</t>
+  </si>
+  <si>
+    <t>Viên Cao</t>
+  </si>
+  <si>
+    <t>Viên An</t>
+  </si>
+  <si>
+    <t>Khẩu Nhập</t>
+  </si>
+  <si>
+    <t>Khẩu Xuất</t>
+  </si>
+  <si>
+    <t>Nhân Khẩu</t>
+  </si>
+  <si>
+    <t>Bắc Khẩu</t>
+  </si>
+  <si>
+    <t>Nhất Nhật Mục</t>
+  </si>
+  <si>
+    <t>Mục Đích</t>
+  </si>
+  <si>
+    <t>Khoa Mục</t>
+  </si>
+  <si>
+    <t>Mục Thứ</t>
+  </si>
+  <si>
+    <t>Nhật Diệu Nhật</t>
+  </si>
+  <si>
+    <t>Nhật Bản</t>
+  </si>
+  <si>
+    <t>Kim Nhật</t>
+  </si>
+  <si>
+    <t>Mỗi Nhật</t>
+  </si>
+  <si>
+    <t>Nhật Kí</t>
+  </si>
+  <si>
+    <t>Hưu Nhật</t>
+  </si>
+  <si>
+    <t>Nguyệt Diệu Nhật</t>
+  </si>
+  <si>
+    <t>Kim Nguyệt</t>
+  </si>
+  <si>
+    <t>Mỗi Nguyệt</t>
+  </si>
+  <si>
+    <t>Lai Nguyệt</t>
+  </si>
+  <si>
+    <t>Chính Nguyệt</t>
+  </si>
+  <si>
+    <t>Hỏa Diệu Nhật</t>
+  </si>
+  <si>
+    <t>Hỏa</t>
+  </si>
+  <si>
+    <t>Hỏa Sự</t>
+  </si>
+  <si>
+    <t>Hỏa Sơn</t>
+  </si>
+  <si>
+    <t>Hoa Hỏa</t>
+  </si>
+  <si>
+    <t>Hoả Tinh</t>
+  </si>
+  <si>
+    <t>Thứ 3</t>
+  </si>
+  <si>
+    <t>Lửa</t>
+  </si>
+  <si>
+    <t>Hỏa hoạn</t>
+  </si>
+  <si>
+    <t>Núi lửa</t>
+  </si>
+  <si>
+    <t>Pháo hoa</t>
+  </si>
+  <si>
+    <t>Sao Hỏa</t>
+  </si>
+  <si>
+    <t>Thủy Diệu Nhật</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>Thủy</t>
+  </si>
+  <si>
+    <t>Thủy Vịnh</t>
+  </si>
+  <si>
+    <t>Thủy Trứ</t>
+  </si>
+  <si>
+    <t>Thứ 4</t>
+  </si>
+  <si>
+    <t>Nước</t>
+  </si>
+  <si>
+    <t>Bơi lội</t>
+  </si>
+  <si>
+    <t>Đồ bơi</t>
+  </si>
+  <si>
+    <t>Hương Thủy</t>
+  </si>
+  <si>
+    <t>Nước hoa</t>
+  </si>
+  <si>
+    <t>Mộc Diệu Nhật</t>
+  </si>
+  <si>
+    <t>Mộc</t>
+  </si>
+  <si>
+    <t>Đại Mộc</t>
+  </si>
+  <si>
+    <t>Cây lớn</t>
+  </si>
+  <si>
+    <t>Kimura san</t>
+  </si>
+  <si>
+    <t>Cây</t>
+  </si>
+  <si>
+    <t>Thứ 5</t>
+  </si>
+  <si>
+    <t>Kim Diệu Nhật</t>
+  </si>
+  <si>
+    <t>Liệu Kim</t>
+  </si>
+  <si>
+    <t>Tiền boa</t>
+  </si>
+  <si>
+    <t>Hiện Kim</t>
+  </si>
+  <si>
+    <t>Tiền mặt</t>
+  </si>
+  <si>
+    <t>Thuế Kim</t>
+  </si>
+  <si>
+    <t>Tiền thuế</t>
+  </si>
+  <si>
+    <t>Thứ 6</t>
+  </si>
+  <si>
+    <t>Tiền</t>
+  </si>
+  <si>
+    <t>Người giàu</t>
+  </si>
+  <si>
+    <t>Thổ Diệu Nhật</t>
+  </si>
+  <si>
+    <t>Thổ</t>
+  </si>
+  <si>
+    <t>Thổ Địa</t>
+  </si>
+  <si>
+    <t>Thổ Tinh</t>
+  </si>
+  <si>
+    <t>Sao Thổ</t>
+  </si>
+  <si>
+    <t>Đất</t>
+  </si>
+  <si>
+    <t>Thứ 7</t>
+  </si>
+  <si>
+    <t>Quà lưu niệm</t>
+  </si>
+  <si>
+    <t>Bản</t>
+  </si>
+  <si>
+    <t>Nhất Bản</t>
+  </si>
+  <si>
+    <t>Nhị Bản</t>
+  </si>
+  <si>
+    <t>Tam Bản</t>
+  </si>
+  <si>
+    <t>Nhật Bản Ngữ</t>
+  </si>
+  <si>
+    <t>Sách</t>
+  </si>
+  <si>
+    <t>1 cuốn</t>
+  </si>
+  <si>
+    <t>2 cuốn</t>
+  </si>
+  <si>
+    <t>3 cuốn</t>
+  </si>
+  <si>
+    <t>Tiếng Nhật</t>
+  </si>
+  <si>
+    <t>Yamamoto san</t>
+  </si>
+  <si>
+    <t>Nhân</t>
+  </si>
+  <si>
+    <t>Nhật Bản Nhân</t>
+  </si>
+  <si>
+    <t>Con người</t>
+  </si>
+  <si>
+    <t>Người Nhật</t>
+  </si>
+  <si>
+    <t>1 người</t>
+  </si>
+  <si>
+    <t>Đàn ông</t>
+  </si>
+  <si>
+    <t>Đàn bà</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Kim Vãn</t>
+  </si>
+  <si>
+    <t>Kim Chu</t>
+  </si>
+  <si>
+    <t>Kim Niên</t>
+  </si>
+  <si>
+    <t>Kim Triều</t>
+  </si>
+  <si>
+    <t>Kim Độ</t>
+  </si>
+  <si>
+    <t>Bây giờ</t>
+  </si>
+  <si>
+    <t>Tối nay</t>
+  </si>
+  <si>
+    <t>Tuần này</t>
+  </si>
+  <si>
+    <t>Năm nay</t>
+  </si>
+  <si>
+    <t>Sáng nay</t>
+  </si>
+  <si>
+    <t>Lần này</t>
+  </si>
+  <si>
+    <t>Tự</t>
+  </si>
+  <si>
+    <t>Tự Viện</t>
+  </si>
+  <si>
+    <t>Chùa chiền</t>
+  </si>
+  <si>
+    <t>Sơn Tự</t>
+  </si>
+  <si>
+    <t>Chùa núi</t>
+  </si>
+  <si>
+    <t>Kim Các Tự</t>
+  </si>
+  <si>
+    <t>Chùa vàng</t>
+  </si>
+  <si>
+    <t>Chùa</t>
+  </si>
+  <si>
+    <t>Thời Gian</t>
+  </si>
+  <si>
+    <t>Nhất Thời Gian</t>
+  </si>
+  <si>
+    <t>Thời Kế</t>
+  </si>
+  <si>
+    <t>Đồng hồ</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Thỉnh thoảng</t>
+  </si>
+  <si>
+    <t>1 giờ (thời gian)</t>
+  </si>
+  <si>
+    <t>1 giờ (khoảng)</t>
+  </si>
+  <si>
+    <t>Tam Thời Bán</t>
+  </si>
+  <si>
+    <t>Bán Phân</t>
+  </si>
+  <si>
+    <t>Bán Đảo</t>
+  </si>
+  <si>
+    <t>Bán Niên</t>
+  </si>
+  <si>
+    <t>3 giờ rưỡi</t>
+  </si>
+  <si>
+    <t>1/2 phút</t>
+  </si>
+  <si>
+    <t>Bán đảo</t>
+  </si>
+  <si>
+    <t>1/2 năm</t>
+  </si>
+  <si>
+    <t>Đao</t>
+  </si>
+  <si>
+    <t>Kiếm</t>
+  </si>
+  <si>
+    <t>Nhật Bản Đao</t>
+  </si>
+  <si>
+    <t>Kiếm Nhật</t>
+  </si>
+  <si>
+    <t>Đoản Đao</t>
+  </si>
+  <si>
+    <t>Kiếm ngắn</t>
+  </si>
+  <si>
+    <t>Ngũ Phân</t>
+  </si>
+  <si>
+    <t>Hiểu</t>
+  </si>
+  <si>
+    <t>5 phút</t>
   </si>
 </sst>
 </file>
@@ -1494,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1535,16 +2438,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1552,16 +2455,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1569,16 +2472,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>486</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1586,16 +2489,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>477</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1603,16 +2506,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>487</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1620,574 +2523,574 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>489</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>490</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>491</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>492</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>493</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>494</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>495</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>496</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>497</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>498</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>499</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>500</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>501</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>502</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>503</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>504</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>505</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>509</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>510</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>511</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>512</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>513</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>514</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>515</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>516</v>
       </c>
       <c r="F40">
         <v>600</v>
@@ -2195,135 +3098,135 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>517</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>518</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>519</v>
       </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>520</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>521</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>522</v>
       </c>
       <c r="F48">
         <v>800</v>
@@ -2331,305 +3234,305 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>523</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>524</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>526</v>
       </c>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>527</v>
       </c>
       <c r="F54" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>528</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>529</v>
       </c>
       <c r="F56" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>530</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="F58" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>531</v>
       </c>
       <c r="F59" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>532</v>
       </c>
       <c r="F60" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>532</v>
       </c>
       <c r="F61" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="E62" t="s">
-        <v>241</v>
+        <v>533</v>
       </c>
       <c r="F62" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>534</v>
       </c>
       <c r="F63" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="E64" t="s">
-        <v>243</v>
+        <v>535</v>
       </c>
       <c r="F64" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="E65" t="s">
-        <v>244</v>
+        <v>536</v>
       </c>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="F66">
         <v>100</v>
@@ -2637,16 +3540,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="E67" t="s">
-        <v>306</v>
+        <v>537</v>
       </c>
       <c r="F67">
         <v>200</v>
@@ -2654,16 +3557,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="E68" t="s">
-        <v>307</v>
+        <v>538</v>
       </c>
       <c r="F68">
         <v>300</v>
@@ -2671,16 +3574,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>516</v>
       </c>
       <c r="F69">
         <v>600</v>
@@ -2688,16 +3591,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
-        <v>130</v>
+        <v>522</v>
       </c>
       <c r="F70">
         <v>800</v>
@@ -2705,33 +3608,33 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>539</v>
       </c>
       <c r="F71" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="D72" t="s">
-        <v>356</v>
+        <v>283</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="F72">
         <v>1000</v>
@@ -2739,16 +3642,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="E73" t="s">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="F73">
         <v>2000</v>
@@ -2756,16 +3659,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D74" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="E74" t="s">
-        <v>311</v>
+        <v>541</v>
       </c>
       <c r="F74">
         <v>3000</v>
@@ -2773,16 +3676,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="D75" t="s">
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>542</v>
       </c>
       <c r="F75">
         <v>8000</v>
@@ -2790,356 +3693,1901 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="D76" t="s">
-        <v>360</v>
+        <v>287</v>
       </c>
       <c r="E76" t="s">
-        <v>313</v>
+        <v>543</v>
       </c>
       <c r="F76" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
-        <v>335</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>544</v>
       </c>
       <c r="F77" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="E78" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="C79" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="E79" t="s">
-        <v>316</v>
+        <v>545</v>
       </c>
       <c r="F79" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="C80" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>546</v>
       </c>
       <c r="F80" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="C81" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="D81" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="E81" t="s">
-        <v>284</v>
+        <v>547</v>
       </c>
       <c r="F81" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="C82" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="D82" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="E82" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="F82" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="D83" t="s">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="E83" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="F83" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="C84" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="C85" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
       <c r="D85" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="E85" t="s">
-        <v>320</v>
+        <v>549</v>
       </c>
       <c r="F85" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="C86" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="E86" t="s">
-        <v>321</v>
+        <v>550</v>
       </c>
       <c r="F86" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="D87" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="E87" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s">
-        <v>347</v>
+        <v>274</v>
       </c>
       <c r="D88" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="E88" t="s">
-        <v>323</v>
+        <v>551</v>
       </c>
       <c r="F88" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C89" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="E89" t="s">
-        <v>324</v>
+        <v>552</v>
       </c>
       <c r="F89" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C90" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>553</v>
       </c>
       <c r="F90" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C91" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="D91" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="E91" t="s">
-        <v>325</v>
+        <v>554</v>
       </c>
       <c r="F91" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="D92" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="E92" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="F92" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="D93" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="E93" t="s">
-        <v>327</v>
+        <v>555</v>
       </c>
       <c r="F93" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="D94" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s">
-        <v>300</v>
+        <v>556</v>
       </c>
       <c r="F94" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="D95" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="E95" t="s">
-        <v>328</v>
+        <v>557</v>
       </c>
       <c r="F95" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="C96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D96" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96" t="s">
+        <v>558</v>
+      </c>
+      <c r="F96" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>307</v>
+      </c>
+      <c r="C98" t="s">
+        <v>308</v>
+      </c>
+      <c r="D98" t="s">
+        <v>315</v>
+      </c>
+      <c r="E98" t="s">
+        <v>559</v>
+      </c>
+      <c r="F98" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" t="s">
+        <v>316</v>
+      </c>
+      <c r="E99" t="s">
+        <v>560</v>
+      </c>
+      <c r="F99" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" t="s">
+        <v>310</v>
+      </c>
+      <c r="D100" t="s">
+        <v>317</v>
+      </c>
+      <c r="E100" t="s">
+        <v>561</v>
+      </c>
+      <c r="F100" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" t="s">
+        <v>497</v>
+      </c>
+      <c r="F101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>307</v>
+      </c>
+      <c r="C102" t="s">
+        <v>311</v>
+      </c>
+      <c r="D102" t="s">
+        <v>318</v>
+      </c>
+      <c r="E102" t="s">
+        <v>562</v>
+      </c>
+      <c r="F102" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>307</v>
+      </c>
+      <c r="C103" t="s">
+        <v>312</v>
+      </c>
+      <c r="D103" t="s">
+        <v>319</v>
+      </c>
+      <c r="E103" t="s">
+        <v>563</v>
+      </c>
+      <c r="F103" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" t="s">
+        <v>313</v>
+      </c>
+      <c r="D104" t="s">
+        <v>320</v>
+      </c>
+      <c r="F104" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" t="s">
+        <v>321</v>
+      </c>
+      <c r="E105" t="s">
+        <v>564</v>
+      </c>
+      <c r="F105" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>454</v>
+      </c>
+      <c r="C107" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107" t="s">
+        <v>327</v>
+      </c>
+      <c r="E107" t="s">
+        <v>476</v>
+      </c>
+      <c r="F107" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>454</v>
+      </c>
+      <c r="C108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D108" t="s">
+        <v>323</v>
+      </c>
+      <c r="E108" t="s">
+        <v>565</v>
+      </c>
+      <c r="F108" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>454</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
+        <v>477</v>
+      </c>
+      <c r="F109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>454</v>
+      </c>
+      <c r="C110" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" t="s">
+        <v>325</v>
+      </c>
+      <c r="E110" t="s">
+        <v>566</v>
+      </c>
+      <c r="F110" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>454</v>
+      </c>
+      <c r="C111" t="s">
+        <v>328</v>
+      </c>
+      <c r="D111" t="s">
+        <v>329</v>
+      </c>
+      <c r="F111" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>454</v>
+      </c>
+      <c r="C112" t="s">
+        <v>331</v>
+      </c>
+      <c r="D112" t="s">
+        <v>330</v>
+      </c>
+      <c r="E112" t="s">
+        <v>567</v>
+      </c>
+      <c r="F112" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>454</v>
+      </c>
+      <c r="C113" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" t="s">
+        <v>333</v>
+      </c>
+      <c r="E113" t="s">
+        <v>568</v>
+      </c>
+      <c r="F113" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>454</v>
+      </c>
+      <c r="C114" t="s">
+        <v>334</v>
+      </c>
+      <c r="D114" t="s">
+        <v>335</v>
+      </c>
+      <c r="E114" t="s">
+        <v>569</v>
+      </c>
+      <c r="F114" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>455</v>
+      </c>
+      <c r="C116" t="s">
+        <v>336</v>
+      </c>
+      <c r="D116" t="s">
+        <v>337</v>
+      </c>
+      <c r="E116" t="s">
+        <v>570</v>
+      </c>
+      <c r="F116" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>455</v>
+      </c>
+      <c r="C117" t="s">
+        <v>339</v>
+      </c>
+      <c r="D117" t="s">
+        <v>338</v>
+      </c>
+      <c r="E117" t="s">
+        <v>571</v>
+      </c>
+      <c r="F117" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>455</v>
+      </c>
+      <c r="C118" t="s">
+        <v>340</v>
+      </c>
+      <c r="D118" t="s">
+        <v>341</v>
+      </c>
+      <c r="E118" t="s">
+        <v>572</v>
+      </c>
+      <c r="F118" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>455</v>
+      </c>
+      <c r="C119" t="s">
+        <v>342</v>
+      </c>
+      <c r="D119" t="s">
+        <v>343</v>
+      </c>
+      <c r="E119" t="s">
+        <v>573</v>
+      </c>
+      <c r="F119" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>455</v>
+      </c>
+      <c r="C120" t="s">
+        <v>344</v>
+      </c>
+      <c r="D120" t="s">
+        <v>345</v>
+      </c>
+      <c r="E120" t="s">
+        <v>574</v>
+      </c>
+      <c r="F120" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>455</v>
+      </c>
+      <c r="C121" t="s">
+        <v>346</v>
+      </c>
+      <c r="D121" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" t="s">
+        <v>575</v>
+      </c>
+      <c r="F121" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>456</v>
+      </c>
+      <c r="C123" t="s">
+        <v>348</v>
+      </c>
+      <c r="D123" t="s">
+        <v>349</v>
+      </c>
+      <c r="E123" t="s">
+        <v>582</v>
+      </c>
+      <c r="F123" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>456</v>
+      </c>
+      <c r="C124" t="s">
+        <v>583</v>
+      </c>
+      <c r="D124" t="s">
+        <v>350</v>
+      </c>
+      <c r="E124" t="s">
+        <v>584</v>
+      </c>
+      <c r="F124" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>456</v>
+      </c>
+      <c r="C125" t="s">
+        <v>351</v>
+      </c>
+      <c r="D125" t="s">
+        <v>352</v>
+      </c>
+      <c r="E125" t="s">
+        <v>585</v>
+      </c>
+      <c r="F125" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>456</v>
+      </c>
+      <c r="C126" t="s">
+        <v>353</v>
+      </c>
+      <c r="D126" t="s">
+        <v>354</v>
+      </c>
+      <c r="E126" t="s">
+        <v>586</v>
+      </c>
+      <c r="F126" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>456</v>
+      </c>
+      <c r="C127" t="s">
         <v>355</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D127" t="s">
+        <v>356</v>
+      </c>
+      <c r="E127" t="s">
+        <v>591</v>
+      </c>
+      <c r="F127" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>457</v>
+      </c>
+      <c r="C129" t="s">
+        <v>357</v>
+      </c>
+      <c r="D129" t="s">
+        <v>358</v>
+      </c>
+      <c r="E129" t="s">
+        <v>593</v>
+      </c>
+      <c r="F129" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>457</v>
+      </c>
+      <c r="C130" t="s">
+        <v>359</v>
+      </c>
+      <c r="D130" t="s">
+        <v>360</v>
+      </c>
+      <c r="E130" t="s">
+        <v>594</v>
+      </c>
+      <c r="F130" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>457</v>
+      </c>
+      <c r="C131" t="s">
+        <v>361</v>
+      </c>
+      <c r="D131" t="s">
+        <v>362</v>
+      </c>
+      <c r="F131" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>457</v>
+      </c>
+      <c r="C132" t="s">
+        <v>363</v>
+      </c>
+      <c r="D132" t="s">
+        <v>364</v>
+      </c>
+      <c r="E132" t="s">
+        <v>595</v>
+      </c>
+      <c r="F132" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>458</v>
+      </c>
+      <c r="C134" t="s">
+        <v>365</v>
+      </c>
+      <c r="D134" t="s">
+        <v>366</v>
+      </c>
+      <c r="E134" t="s">
+        <v>600</v>
+      </c>
+      <c r="F134" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>458</v>
+      </c>
+      <c r="C135" t="s">
+        <v>367</v>
+      </c>
+      <c r="D135" t="s">
+        <v>368</v>
+      </c>
+      <c r="F135" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>458</v>
+      </c>
+      <c r="C136" t="s">
+        <v>369</v>
+      </c>
+      <c r="D136" t="s">
+        <v>370</v>
+      </c>
+      <c r="F136" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>458</v>
+      </c>
+      <c r="C137" t="s">
+        <v>371</v>
+      </c>
+      <c r="D137" t="s">
+        <v>372</v>
+      </c>
+      <c r="E137" t="s">
+        <v>601</v>
+      </c>
+      <c r="F137" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>458</v>
+      </c>
+      <c r="C138" t="s">
+        <v>373</v>
+      </c>
+      <c r="D138" t="s">
+        <v>374</v>
+      </c>
+      <c r="E138" t="s">
+        <v>603</v>
+      </c>
+      <c r="F138" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>458</v>
+      </c>
+      <c r="C139" t="s">
+        <v>375</v>
+      </c>
+      <c r="D139" t="s">
+        <v>376</v>
+      </c>
+      <c r="E139" t="s">
+        <v>605</v>
+      </c>
+      <c r="F139" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>459</v>
+      </c>
+      <c r="C141" t="s">
+        <v>377</v>
+      </c>
+      <c r="D141" t="s">
+        <v>378</v>
+      </c>
+      <c r="E141" t="s">
+        <v>610</v>
+      </c>
+      <c r="F141" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>459</v>
+      </c>
+      <c r="C142" t="s">
+        <v>377</v>
+      </c>
+      <c r="D142" t="s">
         <v>379</v>
       </c>
-      <c r="E96" t="s">
-        <v>329</v>
-      </c>
-      <c r="F96" t="s">
-        <v>304</v>
+      <c r="E142" t="s">
+        <v>611</v>
+      </c>
+      <c r="F142" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>459</v>
+      </c>
+      <c r="C143" t="s">
+        <v>380</v>
+      </c>
+      <c r="D143" t="s">
+        <v>381</v>
+      </c>
+      <c r="F143" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>459</v>
+      </c>
+      <c r="C144" t="s">
+        <v>382</v>
+      </c>
+      <c r="D144" t="s">
+        <v>383</v>
+      </c>
+      <c r="E144" t="s">
+        <v>612</v>
+      </c>
+      <c r="F144" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>459</v>
+      </c>
+      <c r="C145" t="s">
+        <v>384</v>
+      </c>
+      <c r="D145" t="s">
+        <v>385</v>
+      </c>
+      <c r="E145" t="s">
+        <v>613</v>
+      </c>
+      <c r="F145" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>460</v>
+      </c>
+      <c r="C147" t="s">
+        <v>308</v>
+      </c>
+      <c r="D147" t="s">
+        <v>315</v>
+      </c>
+      <c r="E147" t="s">
+        <v>559</v>
+      </c>
+      <c r="F147" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>460</v>
+      </c>
+      <c r="C148" t="s">
+        <v>322</v>
+      </c>
+      <c r="D148" t="s">
+        <v>386</v>
+      </c>
+      <c r="E148" t="s">
+        <v>565</v>
+      </c>
+      <c r="F148" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>460</v>
+      </c>
+      <c r="C149" t="s">
+        <v>336</v>
+      </c>
+      <c r="D149" t="s">
+        <v>337</v>
+      </c>
+      <c r="E149" t="s">
+        <v>570</v>
+      </c>
+      <c r="F149" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>460</v>
+      </c>
+      <c r="C150" t="s">
+        <v>348</v>
+      </c>
+      <c r="D150" t="s">
+        <v>349</v>
+      </c>
+      <c r="E150" t="s">
+        <v>582</v>
+      </c>
+      <c r="F150" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>460</v>
+      </c>
+      <c r="C151" t="s">
+        <v>357</v>
+      </c>
+      <c r="D151" t="s">
+        <v>358</v>
+      </c>
+      <c r="E151" t="s">
+        <v>593</v>
+      </c>
+      <c r="F151" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>460</v>
+      </c>
+      <c r="C152" t="s">
+        <v>365</v>
+      </c>
+      <c r="D152" t="s">
+        <v>366</v>
+      </c>
+      <c r="E152" t="s">
+        <v>600</v>
+      </c>
+      <c r="F152" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>460</v>
+      </c>
+      <c r="C153" t="s">
+        <v>377</v>
+      </c>
+      <c r="D153" t="s">
+        <v>378</v>
+      </c>
+      <c r="E153" t="s">
+        <v>610</v>
+      </c>
+      <c r="F153" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>461</v>
+      </c>
+      <c r="C155" t="s">
+        <v>387</v>
+      </c>
+      <c r="D155" t="s">
+        <v>388</v>
+      </c>
+      <c r="E155" t="s">
+        <v>618</v>
+      </c>
+      <c r="F155" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>461</v>
+      </c>
+      <c r="C156" t="s">
+        <v>309</v>
+      </c>
+      <c r="D156" t="s">
+        <v>316</v>
+      </c>
+      <c r="E156" t="s">
+        <v>560</v>
+      </c>
+      <c r="F156" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>461</v>
+      </c>
+      <c r="C157" t="s">
+        <v>389</v>
+      </c>
+      <c r="D157" t="s">
+        <v>390</v>
+      </c>
+      <c r="E157" t="s">
+        <v>619</v>
+      </c>
+      <c r="F157" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>461</v>
+      </c>
+      <c r="C158" t="s">
+        <v>391</v>
+      </c>
+      <c r="D158" t="s">
+        <v>316</v>
+      </c>
+      <c r="E158" t="s">
+        <v>620</v>
+      </c>
+      <c r="F158" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>461</v>
+      </c>
+      <c r="C159" t="s">
+        <v>392</v>
+      </c>
+      <c r="D159" t="s">
+        <v>393</v>
+      </c>
+      <c r="E159" t="s">
+        <v>621</v>
+      </c>
+      <c r="F159" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>461</v>
+      </c>
+      <c r="C160" t="s">
+        <v>394</v>
+      </c>
+      <c r="D160" t="s">
+        <v>395</v>
+      </c>
+      <c r="E160" t="s">
+        <v>622</v>
+      </c>
+      <c r="F160" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>461</v>
+      </c>
+      <c r="C161" t="s">
+        <v>396</v>
+      </c>
+      <c r="D161" t="s">
+        <v>397</v>
+      </c>
+      <c r="F161" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>462</v>
+      </c>
+      <c r="C163" t="s">
+        <v>398</v>
+      </c>
+      <c r="D163" t="s">
+        <v>399</v>
+      </c>
+      <c r="E163" t="s">
+        <v>629</v>
+      </c>
+      <c r="F163" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>462</v>
+      </c>
+      <c r="C164" t="s">
+        <v>400</v>
+      </c>
+      <c r="D164" t="s">
+        <v>401</v>
+      </c>
+      <c r="E164" t="s">
+        <v>630</v>
+      </c>
+      <c r="F164" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>462</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" t="s">
+        <v>488</v>
+      </c>
+      <c r="F165" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>462</v>
+      </c>
+      <c r="C166" t="s">
+        <v>31</v>
+      </c>
+      <c r="D166" t="s">
+        <v>38</v>
+      </c>
+      <c r="E166" t="s">
+        <v>491</v>
+      </c>
+      <c r="F166" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>462</v>
+      </c>
+      <c r="C167" t="s">
+        <v>108</v>
+      </c>
+      <c r="D167" t="s">
+        <v>151</v>
+      </c>
+      <c r="E167" t="s">
+        <v>498</v>
+      </c>
+      <c r="F167" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>462</v>
+      </c>
+      <c r="C168" t="s">
+        <v>402</v>
+      </c>
+      <c r="D168" t="s">
+        <v>403</v>
+      </c>
+      <c r="F168" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>462</v>
+      </c>
+      <c r="C169" t="s">
+        <v>404</v>
+      </c>
+      <c r="D169" t="s">
+        <v>405</v>
+      </c>
+      <c r="F169" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>462</v>
+      </c>
+      <c r="C170" t="s">
+        <v>406</v>
+      </c>
+      <c r="D170" t="s">
+        <v>407</v>
+      </c>
+      <c r="F170" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>463</v>
+      </c>
+      <c r="C172" t="s">
+        <v>408</v>
+      </c>
+      <c r="D172" t="s">
+        <v>409</v>
+      </c>
+      <c r="E172" t="s">
+        <v>636</v>
+      </c>
+      <c r="F172" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>463</v>
+      </c>
+      <c r="C173" t="s">
+        <v>310</v>
+      </c>
+      <c r="D173" t="s">
+        <v>317</v>
+      </c>
+      <c r="E173" t="s">
+        <v>561</v>
+      </c>
+      <c r="F173" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>463</v>
+      </c>
+      <c r="C174" t="s">
+        <v>324</v>
+      </c>
+      <c r="D174" t="s">
+        <v>325</v>
+      </c>
+      <c r="E174" t="s">
+        <v>566</v>
+      </c>
+      <c r="F174" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>463</v>
+      </c>
+      <c r="C175" t="s">
+        <v>410</v>
+      </c>
+      <c r="D175" t="s">
+        <v>411</v>
+      </c>
+      <c r="E175" t="s">
+        <v>637</v>
+      </c>
+      <c r="F175" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>463</v>
+      </c>
+      <c r="C176" t="s">
+        <v>412</v>
+      </c>
+      <c r="D176" t="s">
+        <v>413</v>
+      </c>
+      <c r="E176" t="s">
+        <v>638</v>
+      </c>
+      <c r="F176" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>463</v>
+      </c>
+      <c r="C177" t="s">
+        <v>414</v>
+      </c>
+      <c r="D177" t="s">
+        <v>415</v>
+      </c>
+      <c r="E177" t="s">
+        <v>639</v>
+      </c>
+      <c r="F177" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>463</v>
+      </c>
+      <c r="C178" t="s">
+        <v>416</v>
+      </c>
+      <c r="D178" t="s">
+        <v>417</v>
+      </c>
+      <c r="E178" t="s">
+        <v>640</v>
+      </c>
+      <c r="F178" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>463</v>
+      </c>
+      <c r="C179" t="s">
+        <v>418</v>
+      </c>
+      <c r="D179" t="s">
+        <v>419</v>
+      </c>
+      <c r="E179" t="s">
+        <v>641</v>
+      </c>
+      <c r="F179" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>464</v>
+      </c>
+      <c r="C181" t="s">
+        <v>420</v>
+      </c>
+      <c r="D181" t="s">
+        <v>421</v>
+      </c>
+      <c r="E181" t="s">
+        <v>648</v>
+      </c>
+      <c r="F181" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>464</v>
+      </c>
+      <c r="C182" t="s">
+        <v>422</v>
+      </c>
+      <c r="D182" t="s">
+        <v>423</v>
+      </c>
+      <c r="E182" t="s">
+        <v>649</v>
+      </c>
+      <c r="F182" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>464</v>
+      </c>
+      <c r="C183" t="s">
+        <v>424</v>
+      </c>
+      <c r="D183" t="s">
+        <v>425</v>
+      </c>
+      <c r="E183" t="s">
+        <v>651</v>
+      </c>
+      <c r="F183" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>464</v>
+      </c>
+      <c r="C184" t="s">
+        <v>426</v>
+      </c>
+      <c r="D184" t="s">
+        <v>427</v>
+      </c>
+      <c r="E184" t="s">
+        <v>653</v>
+      </c>
+      <c r="F184" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>465</v>
+      </c>
+      <c r="C186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" t="s">
+        <v>485</v>
+      </c>
+      <c r="F186" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>465</v>
+      </c>
+      <c r="C187" t="s">
+        <v>428</v>
+      </c>
+      <c r="D187" t="s">
+        <v>429</v>
+      </c>
+      <c r="F187" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>465</v>
+      </c>
+      <c r="C188" t="s">
+        <v>430</v>
+      </c>
+      <c r="D188" t="s">
+        <v>431</v>
+      </c>
+      <c r="E188" t="s">
+        <v>656</v>
+      </c>
+      <c r="F188" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>465</v>
+      </c>
+      <c r="C189" t="s">
+        <v>432</v>
+      </c>
+      <c r="D189" t="s">
+        <v>433</v>
+      </c>
+      <c r="E189" t="s">
+        <v>657</v>
+      </c>
+      <c r="F189" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>465</v>
+      </c>
+      <c r="C190" t="s">
+        <v>434</v>
+      </c>
+      <c r="D190" t="s">
+        <v>435</v>
+      </c>
+      <c r="E190" t="s">
+        <v>658</v>
+      </c>
+      <c r="F190" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>466</v>
+      </c>
+      <c r="C192" t="s">
+        <v>436</v>
+      </c>
+      <c r="D192" t="s">
+        <v>437</v>
+      </c>
+      <c r="E192" t="s">
+        <v>664</v>
+      </c>
+      <c r="F192" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>466</v>
+      </c>
+      <c r="C193" t="s">
+        <v>438</v>
+      </c>
+      <c r="D193" t="s">
+        <v>439</v>
+      </c>
+      <c r="E193" t="s">
+        <v>665</v>
+      </c>
+      <c r="F193" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>466</v>
+      </c>
+      <c r="C194" t="s">
+        <v>440</v>
+      </c>
+      <c r="D194" t="s">
+        <v>441</v>
+      </c>
+      <c r="E194" t="s">
+        <v>666</v>
+      </c>
+      <c r="F194" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>466</v>
+      </c>
+      <c r="C195" t="s">
+        <v>442</v>
+      </c>
+      <c r="D195" t="s">
+        <v>443</v>
+      </c>
+      <c r="E195" t="s">
+        <v>667</v>
+      </c>
+      <c r="F195" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>467</v>
+      </c>
+      <c r="C197" t="s">
+        <v>444</v>
+      </c>
+      <c r="D197" t="s">
+        <v>445</v>
+      </c>
+      <c r="E197" t="s">
+        <v>672</v>
+      </c>
+      <c r="F197" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>467</v>
+      </c>
+      <c r="C198" t="s">
+        <v>446</v>
+      </c>
+      <c r="D198" t="s">
+        <v>447</v>
+      </c>
+      <c r="E198" t="s">
+        <v>674</v>
+      </c>
+      <c r="F198" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>467</v>
+      </c>
+      <c r="C199" t="s">
+        <v>449</v>
+      </c>
+      <c r="D199" t="s">
+        <v>448</v>
+      </c>
+      <c r="E199" t="s">
+        <v>676</v>
+      </c>
+      <c r="F199" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>468</v>
+      </c>
+      <c r="C201" t="s">
+        <v>450</v>
+      </c>
+      <c r="D201" t="s">
+        <v>451</v>
+      </c>
+      <c r="E201" t="s">
+        <v>678</v>
+      </c>
+      <c r="F201" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>468</v>
+      </c>
+      <c r="C202" t="s">
+        <v>438</v>
+      </c>
+      <c r="D202" t="s">
+        <v>439</v>
+      </c>
+      <c r="E202" t="s">
+        <v>665</v>
+      </c>
+      <c r="F202" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>468</v>
+      </c>
+      <c r="C203" t="s">
+        <v>202</v>
+      </c>
+      <c r="D203" t="s">
+        <v>209</v>
+      </c>
+      <c r="E203" t="s">
+        <v>532</v>
+      </c>
+      <c r="F203" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>468</v>
+      </c>
+      <c r="C204" t="s">
+        <v>202</v>
+      </c>
+      <c r="D204" t="s">
+        <v>210</v>
+      </c>
+      <c r="E204" t="s">
+        <v>532</v>
+      </c>
+      <c r="F204" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>468</v>
+      </c>
+      <c r="C205" t="s">
+        <v>452</v>
+      </c>
+      <c r="D205" t="s">
+        <v>453</v>
+      </c>
+      <c r="F205" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
